--- a/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll0_l20_HFalse_c0.xlsx
+++ b/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll0_l20_HFalse_c0.xlsx
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -1027,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
@@ -1059,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>42.85714285714286</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>51.42857142857143</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>115</v>
+        <v>65.71428571428572</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>

--- a/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll0_l20_HFalse_c0.xlsx
+++ b/Instances/G0044214_NonStationary_b2_fe25_en_rk25_ll0_l20_HFalse_c0.xlsx
@@ -995,13 +995,13 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
         <v>9.479631696428571</v>
@@ -1027,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>8.571428571428571</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>17.14285714285714</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
         <v>4.022879464285714</v>
@@ -1059,13 +1059,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>14.28571428571429</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
         <v>6.652483258928571</v>
@@ -1091,13 +1091,13 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>57.14285714285715</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
         <v>13.33677455357143</v>
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>22.85714285714286</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>42.85714285714286</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>51.42857142857143</v>
+        <v>90</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>65.71428571428572</v>
+        <v>115</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
